--- a/data/trans_orig/AIRE_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C54EFE-9246-459E-AC9A-C0CEA4F83ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D31EF2-4D20-456D-84A8-BC196EA399EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EFA87397-BED8-4385-939E-62302F302BF2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC933D76-E179-4325-811D-EBA4B704B9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>87,59%</t>
   </si>
   <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>12,41%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>75,0%</t>
   </si>
   <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>76,71%</t>
   </si>
   <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>75,88%</t>
@@ -158,31 +158,31 @@
     <t>73,43%</t>
   </si>
   <si>
-    <t>79,67%</t>
+    <t>79,71%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>23,29%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>20,33%</t>
+    <t>20,29%</t>
   </si>
   <si>
     <t>26,57%</t>
@@ -194,73 +194,73 @@
     <t>58,93%</t>
   </si>
   <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
   </si>
   <si>
     <t>63,01%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>41,07%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>73,85%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
   </si>
   <si>
     <t>75,98%</t>
@@ -269,31 +269,31 @@
     <t>74,33%</t>
   </si>
   <si>
-    <t>78,58%</t>
+    <t>78,36%</t>
   </si>
   <si>
     <t>26,15%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>22,15%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>21,42%</t>
+    <t>21,64%</t>
   </si>
   <si>
     <t>25,67%</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553E4721-E777-485D-86C8-B41F211E6173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFCF28-A7B0-451E-B2B4-FEBD8838E4F5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>312</v>
       </c>
       <c r="D4" s="7">
-        <v>237087</v>
+        <v>237088</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -934,7 +934,7 @@
         <v>352</v>
       </c>
       <c r="D6" s="7">
-        <v>270687</v>
+        <v>270688</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>806</v>
       </c>
       <c r="D7" s="7">
-        <v>833205</v>
+        <v>833206</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1089,7 +1089,7 @@
         <v>1062</v>
       </c>
       <c r="D9" s="7">
-        <v>1110954</v>
+        <v>1110955</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/AIRE_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D31EF2-4D20-456D-84A8-BC196EA399EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{058F0831-3242-4666-899C-D00575CFA796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC933D76-E179-4325-811D-EBA4B704B9AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA891D78-DAA1-4DA4-8D98-6D64035D7D05}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFCF28-A7B0-451E-B2B4-FEBD8838E4F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED601D70-8548-41CD-8A80-FB38E0DE4C96}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
